--- a/figures/confusion matrices.xlsx
+++ b/figures/confusion matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabiki\Desktop\development\schmitz_r-lymphocyte_activation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4899BEEE-9421-44C3-88B7-005707B4A41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A90D89-932F-4139-8F32-C4D33CD6FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1804,20 +1804,20 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.15234375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>0.80440771349862261</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1931,7 +1931,7 @@
         <v>0.37741046831955921</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1963,7 +1963,7 @@
         <v>0.59211469534050176</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1971,13 +1971,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -2011,7 +2011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -2028,7 +2028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -2045,7 +2045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -2062,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2077,7 +2077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -2108,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -2116,7 +2116,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -2124,7 +2124,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -2140,7 +2140,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2152,7 +2152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2242,27 +2242,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -2303,12 +2303,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2316,12 +2316,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2337,32 +2337,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>83</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2396,12 +2396,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>91</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>93</v>
       </c>
@@ -2441,49 +2441,49 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G70" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2491,12 +2491,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
         <v>139</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>95</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>96</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>106</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>108</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>110</v>
       </c>
@@ -2544,19 +2544,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G79" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="J80" s="5"/>
       <c r="K80" s="4" t="s">
         <v>113</v>
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2564,12 +2564,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="K82" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.45" x14ac:dyDescent="0.4">
       <c r="A83" s="10" t="s">
         <v>140</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>117</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>118</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>119</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>120</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>121</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>122</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>123</v>
       </c>
@@ -2773,17 +2773,17 @@
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3828125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" t="s">
@@ -2803,7 +2803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
         <v>133</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>135</v>
@@ -2835,7 +2835,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I6" s="6"/>
       <c r="J6" s="19" t="s">
         <v>136</v>
@@ -2847,7 +2847,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I7" s="6"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>132</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2940,7 +2940,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>131</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -3035,7 +3035,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3043,7 +3043,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I22" s="6"/>
       <c r="J22" s="19" t="s">
         <v>34</v>
@@ -3055,7 +3055,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I23" s="6"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I24" s="6"/>
       <c r="J24" s="16" t="s">
         <v>133</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I25" s="6"/>
       <c r="J25" s="16"/>
       <c r="K25" s="8" t="s">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3134,12 +3134,12 @@
       <selection activeCell="F2" sqref="F2:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>133</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3242,7 +3242,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3256,12 +3256,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>131</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>132</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F13" s="6"/>
       <c r="G13" s="16" t="s">
         <v>133</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>133</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>132</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3394,7 +3394,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F19" s="6"/>
       <c r="G19" s="19" t="s">
         <v>34</v>
@@ -3406,7 +3406,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F21" s="6"/>
       <c r="G21" s="16" t="s">
         <v>133</v>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F22" s="6"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3477,17 +3477,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5FDC36-550E-4183-BAFA-124BBCC55894}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>157</v>
       </c>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>158</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3572,7 +3572,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3580,12 +3580,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>159</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>160</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F13" s="6"/>
       <c r="G13" s="16" t="s">
         <v>133</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3670,17 +3670,17 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3688,7 +3688,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F19" s="6"/>
       <c r="G19" s="19" t="s">
         <v>34</v>
@@ -3700,7 +3700,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F21" s="6"/>
       <c r="G21" s="16" t="s">
         <v>133</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F22" s="6"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3775,9 +3775,9 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>145</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>146</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>147</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7" t="s">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -3908,17 +3908,17 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -3943,9 +3943,9 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3959,27 +3959,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3988,7 +3988,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F7" s="6"/>
       <c r="G7" s="19" t="s">
         <v>136</v>
@@ -4001,7 +4001,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F8" s="6"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -4110,13 +4110,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759AF1BA-C6BC-4547-BFAC-3E19A30F4031}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4290,7 +4290,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H10" s="6"/>
       <c r="I10" s="19" t="s">
         <v>136</v>
@@ -4307,7 +4307,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H11" s="6"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -4326,7 +4326,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H12" s="6"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H13" s="6"/>
       <c r="I13" s="16" t="s">
         <v>133</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H14" s="6"/>
       <c r="I14" s="16"/>
       <c r="J14" s="22"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
       <c r="J15" s="22" t="s">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H16" s="6"/>
       <c r="I16" s="16"/>
       <c r="J16" s="22"/>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H17" s="6"/>
       <c r="I17" s="16"/>
       <c r="J17" s="21" t="s">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="H18" s="6"/>
       <c r="I18" s="16"/>
       <c r="J18" s="21"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.4">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>

--- a/figures/confusion matrices.xlsx
+++ b/figures/confusion matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabiki\Desktop\development\schmitz_r-lymphocyte_activation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A90D89-932F-4139-8F32-C4D33CD6FAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA0A9A-55F1-4A21-8728-8739036B645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6660" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -552,49 +552,49 @@
     <t xml:space="preserve"> 'top_4': 0.9338842975206612}</t>
   </si>
   <si>
-    <t>CD69+        433     47</t>
-  </si>
-  <si>
-    <t>CD69-         34    564</t>
-  </si>
-  <si>
-    <t>CD69+        413     67</t>
-  </si>
-  <si>
-    <t>CD69-         95    503</t>
-  </si>
-  <si>
-    <t>CD69+        396     84</t>
-  </si>
-  <si>
-    <t>CD69-        142    456</t>
-  </si>
-  <si>
     <t>Predicted Condition  B-Cells  NK-Cells  T-Cells</t>
   </si>
   <si>
-    <t>B-Cells                  342        21        0</t>
-  </si>
-  <si>
-    <t>NK-Cells                   1       366        0</t>
-  </si>
-  <si>
-    <t>T-Cells                   77         1      270</t>
-  </si>
-  <si>
     <t>T-Cells: CD69+</t>
   </si>
   <si>
     <t>T-Cells: CD69-</t>
   </si>
   <si>
-    <t>B-Cells                  210        16        0</t>
-  </si>
-  <si>
-    <t>NK-Cells                   1       198        0</t>
-  </si>
-  <si>
-    <t>T-Cells                   43         0      123</t>
+    <t>CD69+        610     72</t>
+  </si>
+  <si>
+    <t>CD69-         50    832</t>
+  </si>
+  <si>
+    <t>CD69+        577    105</t>
+  </si>
+  <si>
+    <t>CD69-        132    750</t>
+  </si>
+  <si>
+    <t>CD69+        561    121</t>
+  </si>
+  <si>
+    <t>CD69-        168    714</t>
+  </si>
+  <si>
+    <t>B-Cells                  590         8        7</t>
+  </si>
+  <si>
+    <t>NK-Cells                  18       593        0</t>
+  </si>
+  <si>
+    <t>T-Cells                    2         0      346</t>
+  </si>
+  <si>
+    <t>B-Cells                  365         7        3</t>
+  </si>
+  <si>
+    <t>NK-Cells                   2       331        1</t>
+  </si>
+  <si>
+    <t>T-Cells                    1         0      165</t>
   </si>
 </sst>
 </file>
@@ -1804,20 +1804,20 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1899,7 +1899,7 @@
         <v>0.80440771349862261</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1931,7 +1931,7 @@
         <v>0.37741046831955921</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1963,7 +1963,7 @@
         <v>0.59211469534050176</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1971,13 +1971,13 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -2011,7 +2011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -2028,7 +2028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>26</v>
@@ -2045,7 +2045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -2062,7 +2062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2077,7 +2077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -2108,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
@@ -2116,7 +2116,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -2124,7 +2124,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>39</v>
@@ -2140,7 +2140,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2152,7 +2152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>55</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>58</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2242,27 +2242,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>71</v>
       </c>
@@ -2303,12 +2303,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2316,12 +2316,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2337,32 +2337,32 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>11</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>13</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>83</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -2396,12 +2396,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>91</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>93</v>
       </c>
@@ -2441,49 +2441,49 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G70" s="4" t="s">
         <v>100</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2491,12 +2491,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>139</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>95</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>96</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>106</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>108</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>110</v>
       </c>
@@ -2544,19 +2544,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J80" s="5"/>
       <c r="K80" s="4" t="s">
         <v>113</v>
       </c>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2564,12 +2564,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K82" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>140</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>117</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>118</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>119</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>120</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>121</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>122</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>123</v>
       </c>
@@ -2773,17 +2773,17 @@
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" t="s">
@@ -2803,7 +2803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>133</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>135</v>
@@ -2835,7 +2835,7 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I6" s="6"/>
       <c r="J6" s="19" t="s">
         <v>136</v>
@@ -2847,7 +2847,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I7" s="6"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>133</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>131</v>
       </c>
@@ -2921,7 +2921,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>132</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2940,7 +2940,7 @@
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>34</v>
       </c>
@@ -2964,7 +2964,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>133</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>131</v>
       </c>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>132</v>
       </c>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -3035,7 +3035,7 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="21" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3043,7 +3043,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
       <c r="J22" s="19" t="s">
         <v>34</v>
@@ -3055,7 +3055,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -3067,7 +3067,7 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="6"/>
       <c r="J24" s="16" t="s">
         <v>133</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="6"/>
       <c r="J25" s="16"/>
       <c r="K25" s="8" t="s">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -3134,12 +3134,12 @@
       <selection activeCell="F2" sqref="F2:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>133</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>132</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3242,7 +3242,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3256,12 +3256,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>131</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>132</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6"/>
       <c r="G13" s="16" t="s">
         <v>133</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>133</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>131</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>132</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3394,7 +3394,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
       <c r="G19" s="19" t="s">
         <v>34</v>
@@ -3406,7 +3406,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
       <c r="G21" s="16" t="s">
         <v>133</v>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3478,16 +3478,16 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.84375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3501,7 +3501,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -3516,9 +3516,9 @@
       <c r="J3" s="15"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
@@ -3531,9 +3531,9 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="16" t="s">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="8" t="s">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -3572,7 +3572,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -3580,14 +3580,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3596,9 +3596,9 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="19" t="s">
@@ -3611,7 +3611,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="6"/>
       <c r="G13" s="16" t="s">
         <v>133</v>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -3670,17 +3670,17 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -3688,7 +3688,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="6"/>
       <c r="G19" s="19" t="s">
         <v>34</v>
@@ -3700,7 +3700,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F20" s="6"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F21" s="6"/>
       <c r="G21" s="16" t="s">
         <v>133</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F22" s="6"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -3772,12 +3772,12 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A7" sqref="A7:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3803,7 +3803,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>145</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>146</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>147</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
       <c r="G6" s="16"/>
       <c r="H6" s="7" t="s">
@@ -3876,9 +3876,9 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="16"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>96</v>
       </c>
@@ -3908,19 +3908,19 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3940,12 +3940,12 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -3959,27 +3959,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -3988,7 +3988,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="6"/>
       <c r="G7" s="19" t="s">
         <v>136</v>
@@ -4001,7 +4001,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="6"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -4016,9 +4016,9 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="16" t="s">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -4090,7 +4090,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -4110,13 +4110,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759AF1BA-C6BC-4547-BFAC-3E19A30F4031}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -4133,47 +4131,47 @@
         <v>121</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>119</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>340</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -4182,24 +4180,24 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>120</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -4208,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -4216,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4231,53 +4229,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>171</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>135</v>
-      </c>
-      <c r="G6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -4290,7 +4288,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="6"/>
       <c r="I10" s="19" t="s">
         <v>136</v>
@@ -4307,7 +4305,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -4326,7 +4324,7 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12" s="6"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -4351,7 +4349,7 @@
       </c>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H13" s="6"/>
       <c r="I13" s="16" t="s">
         <v>133</v>
@@ -4382,7 +4380,7 @@
       </c>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="6"/>
       <c r="I14" s="16"/>
       <c r="J14" s="22"/>
@@ -4409,7 +4407,7 @@
       </c>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="6"/>
       <c r="I15" s="16"/>
       <c r="J15" s="22" t="s">
@@ -4438,7 +4436,7 @@
       </c>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="6"/>
       <c r="I16" s="16"/>
       <c r="J16" s="22"/>
@@ -4465,7 +4463,7 @@
       </c>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="6"/>
       <c r="I17" s="16"/>
       <c r="J17" s="21" t="s">
@@ -4494,7 +4492,7 @@
       </c>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="8:18" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="6"/>
       <c r="I18" s="16"/>
       <c r="J18" s="21"/>
@@ -4521,7 +4519,7 @@
       </c>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>

--- a/figures/confusion matrices.xlsx
+++ b/figures/confusion matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabiki\Desktop\development\schmitz_r-lymphocyte_activation\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jriendeau\Documents\GitHub\schmitz_r-lymphocyte_activation\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA0A9A-55F1-4A21-8728-8739036B645C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CB8C64-632F-4693-9EB7-CA23039830C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1206,23 +1206,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>354806</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73283179-D470-63C5-600F-3DC1E412A0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5BADDA-98D0-9082-3C9F-814FA4A71BBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1245,8 +1245,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7362825" y="590550"/>
-          <a:ext cx="2495550" cy="809625"/>
+          <a:off x="7054453" y="422672"/>
+          <a:ext cx="2486025" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,23 +1267,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279797</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336947</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE06F911-5446-1EAA-AD41-52C836C968A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EAD6B7-C584-3BFF-BED8-991B14152C53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,8 +1306,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7391400" y="1866900"/>
-          <a:ext cx="2495550" cy="809625"/>
+          <a:off x="7036594" y="1732360"/>
+          <a:ext cx="2486025" cy="816769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1328,23 +1328,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279797</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336947</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175C76D0-36A5-2EB2-8598-413124509FA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B84760F-09CD-604C-725E-3008E9649864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,8 +1367,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7419975" y="3105150"/>
-          <a:ext cx="2495550" cy="809625"/>
+          <a:off x="7036594" y="3309937"/>
+          <a:ext cx="2486025" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,23 +1394,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EFB700-91D7-FEB9-D9A5-3D5A7C000C60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D9E810-AC39-1C89-DE6F-3E232371900A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7677150" y="923925"/>
+          <a:off x="7924800" y="1190625"/>
           <a:ext cx="3057525" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1460,23 +1460,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF54B5DC-617B-4DD2-F643-8334E009AAC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C1EF5B-9EB6-DCFA-15CA-E033D88EAA15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7658100" y="1323975"/>
+          <a:off x="7924800" y="1552575"/>
           <a:ext cx="3057525" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1526,23 +1526,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C93F8A-372C-6B55-96AE-6DEB7DDECF97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6B78CD-B3FF-8D6E-DEBD-9B0B70F0FDF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10972800" y="1933575"/>
+          <a:off x="10696575" y="1514475"/>
           <a:ext cx="5495925" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2769,7 +2769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F196748-038B-428A-A71C-781F5A84D9C5}">
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
@@ -3477,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5FDC36-550E-4183-BAFA-124BBCC55894}">
   <dimension ref="A2:K23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B17"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,10 +3543,10 @@
         <v>134</v>
       </c>
       <c r="I5" s="9">
-        <v>676</v>
+        <v>610</v>
       </c>
       <c r="J5" s="7">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="K5" s="6"/>
     </row>
@@ -3557,10 +3557,10 @@
         <v>135</v>
       </c>
       <c r="I6" s="7">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J6" s="9">
-        <v>1344</v>
+        <v>832</v>
       </c>
       <c r="K6" s="6"/>
     </row>
@@ -3632,10 +3632,10 @@
         <v>134</v>
       </c>
       <c r="I13" s="9">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="J13" s="7">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -3652,10 +3652,10 @@
         <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J14" s="9">
-        <v>1267</v>
+        <v>750</v>
       </c>
       <c r="K14" s="6"/>
     </row>
@@ -3721,10 +3721,10 @@
         <v>134</v>
       </c>
       <c r="I21" s="9">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="J21" s="7">
-        <v>219</v>
+        <v>121</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -3738,7 +3738,7 @@
         <v>168</v>
       </c>
       <c r="J22" s="9">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="K22" s="6"/>
     </row>
@@ -3771,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3289ACF2-55D6-48B3-8C81-C5AE6EBFCF9E}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A11"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,13 +3849,13 @@
         <v>145</v>
       </c>
       <c r="I5" s="9">
-        <v>362</v>
+        <v>590</v>
       </c>
       <c r="J5" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K5" s="12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L5" s="6"/>
     </row>
@@ -3866,13 +3866,13 @@
         <v>146</v>
       </c>
       <c r="I6" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J6" s="9">
-        <v>368</v>
+        <v>593</v>
       </c>
       <c r="K6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -3886,13 +3886,13 @@
         <v>147</v>
       </c>
       <c r="I7" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="12">
         <v>0</v>
       </c>
       <c r="K7" s="9">
-        <v>1428</v>
+        <v>346</v>
       </c>
       <c r="L7" s="6"/>
     </row>
@@ -3939,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBD06D5-E800-42F7-A73B-99A93393ACC8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,13 +4028,13 @@
         <v>145</v>
       </c>
       <c r="I9" s="9">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="J9" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K9" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="6"/>
     </row>
@@ -4051,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="9">
-        <v>172</v>
+        <v>331</v>
       </c>
       <c r="K10" s="12">
         <v>1</v>
@@ -4068,13 +4068,13 @@
         <v>147</v>
       </c>
       <c r="I11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="12">
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>985</v>
+        <v>165</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -4110,7 +4110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759AF1BA-C6BC-4547-BFAC-3E19A30F4031}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4361,16 +4363,17 @@
         <v>148</v>
       </c>
       <c r="L13" s="13">
-        <v>118</v>
+        <f>B2</f>
+        <v>210</v>
       </c>
       <c r="M13" s="9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="12">
         <v>1</v>
@@ -4388,22 +4391,22 @@
         <v>149</v>
       </c>
       <c r="L14" s="9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M14" s="13">
-        <v>222</v>
+        <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="12">
         <v>0</v>
       </c>
       <c r="Q14" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" s="6"/>
     </row>
@@ -4417,22 +4420,22 @@
         <v>148</v>
       </c>
       <c r="L15" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N15" s="13">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="O15" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="P15" s="12">
         <v>0</v>
       </c>
       <c r="Q15" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="6"/>
     </row>
@@ -4447,13 +4450,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N16" s="9">
         <v>29</v>
       </c>
       <c r="O16" s="13">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="P16" s="12">
         <v>0</v>
@@ -4485,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="13">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="9">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="R17" s="6"/>
     </row>
@@ -4500,10 +4503,10 @@
         <v>149</v>
       </c>
       <c r="L18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -4512,10 +4515,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="13">
-        <v>919</v>
+        <v>166</v>
       </c>
       <c r="R18" s="6"/>
     </row>
